--- a/Code/Results/Cases/Case_4_114/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_114/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.033833999276945</v>
+        <v>1.072714666073793</v>
       </c>
       <c r="D2">
-        <v>1.052338426092245</v>
+        <v>1.075858415397501</v>
       </c>
       <c r="E2">
-        <v>1.05221166601883</v>
+        <v>1.085367558967875</v>
       </c>
       <c r="F2">
-        <v>1.060326565946835</v>
+        <v>1.090296748170131</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.065161203720317</v>
+        <v>1.054828572189578</v>
       </c>
       <c r="J2">
-        <v>1.055047777269679</v>
+        <v>1.077632818300618</v>
       </c>
       <c r="K2">
-        <v>1.063113757953134</v>
+        <v>1.078543875911341</v>
       </c>
       <c r="L2">
-        <v>1.062988552187349</v>
+        <v>1.088028171411269</v>
       </c>
       <c r="M2">
-        <v>1.071004879291245</v>
+        <v>1.092944664306481</v>
       </c>
       <c r="N2">
-        <v>1.020088770505273</v>
+        <v>1.029224888212585</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.041203408642882</v>
+        <v>1.07419035827153</v>
       </c>
       <c r="D3">
-        <v>1.058251777161866</v>
+        <v>1.077044819703253</v>
       </c>
       <c r="E3">
-        <v>1.059024165307736</v>
+        <v>1.086776655987513</v>
       </c>
       <c r="F3">
-        <v>1.066938803572525</v>
+        <v>1.09165501277119</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067851747620597</v>
+        <v>1.055253965002003</v>
       </c>
       <c r="J3">
-        <v>1.060630547546638</v>
+        <v>1.078764458076185</v>
       </c>
       <c r="K3">
-        <v>1.068189861570231</v>
+        <v>1.079546771329144</v>
       </c>
       <c r="L3">
-        <v>1.068953669088224</v>
+        <v>1.089255028720666</v>
       </c>
       <c r="M3">
-        <v>1.076781260771462</v>
+        <v>1.09412173580405</v>
       </c>
       <c r="N3">
-        <v>1.0221460016698</v>
+        <v>1.029626136867439</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.045835189637599</v>
+        <v>1.07514413091314</v>
       </c>
       <c r="D4">
-        <v>1.061969947530373</v>
+        <v>1.077811341319072</v>
       </c>
       <c r="E4">
-        <v>1.063311050713913</v>
+        <v>1.087687635687663</v>
       </c>
       <c r="F4">
-        <v>1.071099267031449</v>
+        <v>1.092533016948944</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.069528473139212</v>
+        <v>1.05552713379347</v>
       </c>
       <c r="J4">
-        <v>1.064134902713554</v>
+        <v>1.079495145909311</v>
       </c>
       <c r="K4">
-        <v>1.0713738396198</v>
+        <v>1.080193973291176</v>
       </c>
       <c r="L4">
-        <v>1.072701005794186</v>
+        <v>1.090047551146669</v>
       </c>
       <c r="M4">
-        <v>1.080409126078399</v>
+        <v>1.094881948317036</v>
       </c>
       <c r="N4">
-        <v>1.023434791326391</v>
+        <v>1.029884697867383</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.047751433856182</v>
+        <v>1.075544840179138</v>
       </c>
       <c r="D5">
-        <v>1.063508494135947</v>
+        <v>1.078133313246248</v>
       </c>
       <c r="E5">
-        <v>1.065085767555432</v>
+        <v>1.088070425270012</v>
       </c>
       <c r="F5">
-        <v>1.072821534482518</v>
+        <v>1.092901923272243</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.070218667488363</v>
+        <v>1.055641475880192</v>
       </c>
       <c r="J5">
-        <v>1.065583576884976</v>
+        <v>1.07980195857496</v>
       </c>
       <c r="K5">
-        <v>1.072689491413666</v>
+        <v>1.080465644823173</v>
       </c>
       <c r="L5">
-        <v>1.074250838781133</v>
+        <v>1.090380412529164</v>
       </c>
       <c r="M5">
-        <v>1.081909319761156</v>
+        <v>1.095201203544755</v>
       </c>
       <c r="N5">
-        <v>1.023966926318878</v>
+        <v>1.02999314147903</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.048071413343699</v>
+        <v>1.075612106155291</v>
       </c>
       <c r="D6">
-        <v>1.063765418474654</v>
+        <v>1.078187357819455</v>
       </c>
       <c r="E6">
-        <v>1.065382180816711</v>
+        <v>1.088134686555313</v>
       </c>
       <c r="F6">
-        <v>1.073109180610895</v>
+        <v>1.09296385229385</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.070333710774547</v>
+        <v>1.055660645270038</v>
       </c>
       <c r="J6">
-        <v>1.065825411952219</v>
+        <v>1.079853452298003</v>
       </c>
       <c r="K6">
-        <v>1.072909085600888</v>
+        <v>1.080511235614983</v>
       </c>
       <c r="L6">
-        <v>1.07450960265171</v>
+        <v>1.090436283086498</v>
       </c>
       <c r="M6">
-        <v>1.082159782024144</v>
+        <v>1.095254788207865</v>
       </c>
       <c r="N6">
-        <v>1.024055720004021</v>
+        <v>1.030011334706745</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.045860913983524</v>
+        <v>1.075149486210974</v>
       </c>
       <c r="D7">
-        <v>1.061990600545467</v>
+        <v>1.077815644594136</v>
       </c>
       <c r="E7">
-        <v>1.063334870637332</v>
+        <v>1.087692751266175</v>
       </c>
       <c r="F7">
-        <v>1.071122383452691</v>
+        <v>1.092537947099064</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.069537752458743</v>
+        <v>1.055528663592662</v>
       </c>
       <c r="J7">
-        <v>1.064154354797197</v>
+        <v>1.079499246997322</v>
       </c>
       <c r="K7">
-        <v>1.071391507869584</v>
+        <v>1.080197604994076</v>
       </c>
       <c r="L7">
-        <v>1.072721813373153</v>
+        <v>1.090052000088634</v>
       </c>
       <c r="M7">
-        <v>1.08042926813146</v>
+        <v>1.094886215543892</v>
       </c>
       <c r="N7">
-        <v>1.023441939147213</v>
+        <v>1.029886147897894</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.036353949293831</v>
+        <v>1.073213614506562</v>
       </c>
       <c r="D8">
-        <v>1.054360096754951</v>
+        <v>1.076259609312599</v>
       </c>
       <c r="E8">
-        <v>1.054540055735468</v>
+        <v>1.085843938811924</v>
       </c>
       <c r="F8">
-        <v>1.062586585136221</v>
+        <v>1.090755966050358</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.066084211493357</v>
+        <v>1.054972769384661</v>
       </c>
       <c r="J8">
-        <v>1.056957703499692</v>
+        <v>1.078015586834779</v>
       </c>
       <c r="K8">
-        <v>1.064850829016711</v>
+        <v>1.078883171489014</v>
       </c>
       <c r="L8">
-        <v>1.065028652596353</v>
+        <v>1.088443073206152</v>
       </c>
       <c r="M8">
-        <v>1.072980615736689</v>
+        <v>1.093342760285983</v>
       </c>
       <c r="N8">
-        <v>1.020793092562858</v>
+        <v>1.02936071536741</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.018466281616818</v>
+        <v>1.069793661216129</v>
       </c>
       <c r="D9">
-        <v>1.04002029357564</v>
+        <v>1.073508590551309</v>
       </c>
       <c r="E9">
-        <v>1.03803751033792</v>
+        <v>1.082579727219062</v>
       </c>
       <c r="F9">
-        <v>1.046567578363517</v>
+        <v>1.087608895548132</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059473091458856</v>
+        <v>1.0539771253168</v>
       </c>
       <c r="J9">
-        <v>1.043383386457011</v>
+        <v>1.075389039710422</v>
       </c>
       <c r="K9">
-        <v>1.052495803211197</v>
+        <v>1.076553476889224</v>
       </c>
       <c r="L9">
-        <v>1.050542192546843</v>
+        <v>1.085597485431732</v>
       </c>
       <c r="M9">
-        <v>1.05894775321301</v>
+        <v>1.090611825738201</v>
       </c>
       <c r="N9">
-        <v>1.015777519765285</v>
+        <v>1.028426540177754</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.005639717790713</v>
+        <v>1.067507444382811</v>
       </c>
       <c r="D10">
-        <v>1.029756954947323</v>
+        <v>1.071668199001212</v>
       </c>
       <c r="E10">
-        <v>1.026240688504701</v>
+        <v>1.080398969152825</v>
       </c>
       <c r="F10">
-        <v>1.035115952443459</v>
+        <v>1.085505833225579</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054659767017062</v>
+        <v>1.053302419416842</v>
       </c>
       <c r="J10">
-        <v>1.033631349978727</v>
+        <v>1.073629544886519</v>
       </c>
       <c r="K10">
-        <v>1.043608949165105</v>
+        <v>1.074991019533983</v>
       </c>
       <c r="L10">
-        <v>1.040151789050888</v>
+        <v>1.08369309113587</v>
       </c>
       <c r="M10">
-        <v>1.048878859070267</v>
+        <v>1.088783403051033</v>
       </c>
       <c r="N10">
-        <v>1.012163214384871</v>
+        <v>1.027798076665373</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9998357570666866</v>
+        <v>1.066515916117314</v>
       </c>
       <c r="D11">
-        <v>1.025119299389663</v>
+        <v>1.070869715255135</v>
       </c>
       <c r="E11">
-        <v>1.020912830797957</v>
+        <v>1.079453506419089</v>
       </c>
       <c r="F11">
-        <v>1.029944200977</v>
+        <v>1.084593923855108</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052465581870089</v>
+        <v>1.053007640039621</v>
       </c>
       <c r="J11">
-        <v>1.029215370333646</v>
+        <v>1.072865590458195</v>
       </c>
       <c r="K11">
-        <v>1.039582556496304</v>
+        <v>1.074312188595502</v>
       </c>
       <c r="L11">
-        <v>1.035450851801684</v>
+        <v>1.082866658337639</v>
       </c>
       <c r="M11">
-        <v>1.044322676341779</v>
+        <v>1.087989760649999</v>
       </c>
       <c r="N11">
-        <v>1.010524469681481</v>
+        <v>1.027524574760148</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9976387992838401</v>
+        <v>1.066147373039342</v>
       </c>
       <c r="D12">
-        <v>1.023364972255991</v>
+        <v>1.070572879816084</v>
       </c>
       <c r="E12">
-        <v>1.018897757645288</v>
+        <v>1.079102135592657</v>
       </c>
       <c r="F12">
-        <v>1.027988230129521</v>
+        <v>1.084255003211133</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051632697381395</v>
+        <v>1.052897748592029</v>
       </c>
       <c r="J12">
-        <v>1.027543426631511</v>
+        <v>1.072581505238174</v>
       </c>
       <c r="K12">
-        <v>1.038057820916296</v>
+        <v>1.074059693503179</v>
       </c>
       <c r="L12">
-        <v>1.03367164636422</v>
+        <v>1.082559405301284</v>
       </c>
       <c r="M12">
-        <v>1.042598170758668</v>
+        <v>1.08769467186014</v>
       </c>
       <c r="N12">
-        <v>1.009903755905381</v>
+        <v>1.027422775660704</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9981119765261945</v>
+        <v>1.066226438007566</v>
       </c>
       <c r="D13">
-        <v>1.023742761286988</v>
+        <v>1.070636563108814</v>
       </c>
       <c r="E13">
-        <v>1.019331683210039</v>
+        <v>1.079177514254229</v>
       </c>
       <c r="F13">
-        <v>1.028409425357154</v>
+        <v>1.084327711849506</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051812185850396</v>
+        <v>1.052921338698564</v>
       </c>
       <c r="J13">
-        <v>1.027903542192383</v>
+        <v>1.072642456989915</v>
       </c>
       <c r="K13">
-        <v>1.038386242391811</v>
+        <v>1.074113870343708</v>
       </c>
       <c r="L13">
-        <v>1.034054836310309</v>
+        <v>1.08262532484776</v>
       </c>
       <c r="M13">
-        <v>1.042969583500168</v>
+        <v>1.087757982833584</v>
       </c>
       <c r="N13">
-        <v>1.010037460942822</v>
+        <v>1.027444621372447</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9996550166360747</v>
+        <v>1.066485457281297</v>
       </c>
       <c r="D14">
-        <v>1.024974949039946</v>
+        <v>1.070845183733756</v>
       </c>
       <c r="E14">
-        <v>1.02074701907897</v>
+        <v>1.079424465786049</v>
       </c>
       <c r="F14">
-        <v>1.029783251118228</v>
+        <v>1.084565912621526</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052397108218671</v>
+        <v>1.05299856449709</v>
       </c>
       <c r="J14">
-        <v>1.029077828946078</v>
+        <v>1.072842114416892</v>
       </c>
       <c r="K14">
-        <v>1.039457130845735</v>
+        <v>1.074291324381451</v>
       </c>
       <c r="L14">
-        <v>1.035304473833348</v>
+        <v>1.082841266434403</v>
       </c>
       <c r="M14">
-        <v>1.044180800253521</v>
+        <v>1.087965374562823</v>
       </c>
       <c r="N14">
-        <v>1.010473412133333</v>
+        <v>1.02751616427615</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000600173232397</v>
+        <v>1.066645014862623</v>
       </c>
       <c r="D15">
-        <v>1.025729856798399</v>
+        <v>1.070973689422877</v>
       </c>
       <c r="E15">
-        <v>1.021614176695855</v>
+        <v>1.079576596213218</v>
       </c>
       <c r="F15">
-        <v>1.030624984963769</v>
+        <v>1.084712649702122</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052755087671929</v>
+        <v>1.053046093142844</v>
       </c>
       <c r="J15">
-        <v>1.029797067697545</v>
+        <v>1.072965087564678</v>
       </c>
       <c r="K15">
-        <v>1.040113001597786</v>
+        <v>1.074400613531509</v>
       </c>
       <c r="L15">
-        <v>1.036069946826026</v>
+        <v>1.082974278008336</v>
       </c>
       <c r="M15">
-        <v>1.044922727587943</v>
+        <v>1.088093116234529</v>
       </c>
       <c r="N15">
-        <v>1.010740394515919</v>
+        <v>1.027560216555818</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.006019347891248</v>
+        <v>1.067573214870942</v>
       </c>
       <c r="D16">
-        <v>1.030060446915719</v>
+        <v>1.071721157950892</v>
       </c>
       <c r="E16">
-        <v>1.026589398873497</v>
+        <v>1.080461690977206</v>
       </c>
       <c r="F16">
-        <v>1.035454452268264</v>
+        <v>1.085566326374317</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054802959809645</v>
+        <v>1.053321927382994</v>
       </c>
       <c r="J16">
-        <v>1.033920136080794</v>
+        <v>1.073680201675701</v>
       </c>
       <c r="K16">
-        <v>1.043872215480951</v>
+        <v>1.07503602291445</v>
       </c>
       <c r="L16">
-        <v>1.040459295953516</v>
+        <v>1.083747899951687</v>
       </c>
       <c r="M16">
-        <v>1.049176883977567</v>
+        <v>1.088836033475006</v>
       </c>
       <c r="N16">
-        <v>1.0122703420059</v>
+        <v>1.027816198984519</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009349358684663</v>
+        <v>1.068155021392616</v>
       </c>
       <c r="D17">
-        <v>1.032723343517783</v>
+        <v>1.072189597892534</v>
       </c>
       <c r="E17">
-        <v>1.02964935097954</v>
+        <v>1.081016566964843</v>
       </c>
       <c r="F17">
-        <v>1.038424832590617</v>
+        <v>1.086101470969652</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05605719357225</v>
+        <v>1.053494245729286</v>
       </c>
       <c r="J17">
-        <v>1.036452936018717</v>
+        <v>1.074128212489319</v>
       </c>
       <c r="K17">
-        <v>1.046180950773767</v>
+        <v>1.075433985388195</v>
       </c>
       <c r="L17">
-        <v>1.043156751536479</v>
+        <v>1.084232681710011</v>
       </c>
       <c r="M17">
-        <v>1.051791085782707</v>
+        <v>1.089301526888522</v>
       </c>
       <c r="N17">
-        <v>1.013209674882954</v>
+        <v>1.027976400964694</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.011267841477659</v>
+        <v>1.06849422724919</v>
       </c>
       <c r="D18">
-        <v>1.034258083102745</v>
+        <v>1.072462678702554</v>
       </c>
       <c r="E18">
-        <v>1.031413191508925</v>
+        <v>1.081340103325192</v>
       </c>
       <c r="F18">
-        <v>1.040137058531724</v>
+        <v>1.086413489689128</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056778254154979</v>
+        <v>1.053594502785097</v>
       </c>
       <c r="J18">
-        <v>1.037911819344517</v>
+        <v>1.074389329171315</v>
       </c>
       <c r="K18">
-        <v>1.047510565549178</v>
+        <v>1.075665890849856</v>
       </c>
       <c r="L18">
-        <v>1.044710861458496</v>
+        <v>1.084515271756023</v>
       </c>
       <c r="M18">
-        <v>1.053297162225827</v>
+        <v>1.089572856137846</v>
       </c>
       <c r="N18">
-        <v>1.013750527264866</v>
+        <v>1.028069711727134</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.011918048739212</v>
+        <v>1.06860986212486</v>
       </c>
       <c r="D19">
-        <v>1.034778328793784</v>
+        <v>1.072555766532483</v>
       </c>
       <c r="E19">
-        <v>1.032011143950797</v>
+        <v>1.081450401823775</v>
       </c>
       <c r="F19">
-        <v>1.040717515375698</v>
+        <v>1.086519859489873</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057022372123521</v>
+        <v>1.053628644959252</v>
       </c>
       <c r="J19">
-        <v>1.038406204501974</v>
+        <v>1.074478329387506</v>
       </c>
       <c r="K19">
-        <v>1.047961108003915</v>
+        <v>1.075744927570629</v>
       </c>
       <c r="L19">
-        <v>1.045237582082129</v>
+        <v>1.084611598165855</v>
       </c>
       <c r="M19">
-        <v>1.053807591261808</v>
+        <v>1.089665341161601</v>
       </c>
       <c r="N19">
-        <v>1.013933775578931</v>
+        <v>1.02810150589926</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00899457182587</v>
+        <v>1.068092614841969</v>
       </c>
       <c r="D20">
-        <v>1.032439569549998</v>
+        <v>1.072139354510135</v>
       </c>
       <c r="E20">
-        <v>1.029323237753599</v>
+        <v>1.080957045801498</v>
       </c>
       <c r="F20">
-        <v>1.038108263469301</v>
+        <v>1.086044067690135</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055923722711907</v>
+        <v>1.053475783822111</v>
       </c>
       <c r="J20">
-        <v>1.036183117390063</v>
+        <v>1.074080165944116</v>
       </c>
       <c r="K20">
-        <v>1.045935023101785</v>
+        <v>1.075391310502443</v>
       </c>
       <c r="L20">
-        <v>1.042869352044927</v>
+        <v>1.084180687355208</v>
       </c>
       <c r="M20">
-        <v>1.051512563442861</v>
+        <v>1.089251603046473</v>
       </c>
       <c r="N20">
-        <v>1.013109628392915</v>
+        <v>1.027959226511875</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9992017954222125</v>
+        <v>1.066409189396018</v>
       </c>
       <c r="D21">
-        <v>1.024612998071394</v>
+        <v>1.070783756911128</v>
       </c>
       <c r="E21">
-        <v>1.020331260121781</v>
+        <v>1.079351749843768</v>
       </c>
       <c r="F21">
-        <v>1.029379683950701</v>
+        <v>1.084495773916378</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052225367998732</v>
+        <v>1.052975834411126</v>
       </c>
       <c r="J21">
-        <v>1.028732927190623</v>
+        <v>1.07278332912074</v>
       </c>
       <c r="K21">
-        <v>1.039142606167357</v>
+        <v>1.074239078211258</v>
       </c>
       <c r="L21">
-        <v>1.034937423385597</v>
+        <v>1.082777684772517</v>
       </c>
       <c r="M21">
-        <v>1.043825037182494</v>
+        <v>1.087904311047917</v>
       </c>
       <c r="N21">
-        <v>1.01034537503524</v>
+        <v>1.027495102441007</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9928047346714667</v>
+        <v>1.065349329706057</v>
       </c>
       <c r="D22">
-        <v>1.01950719306571</v>
+        <v>1.069930030167643</v>
       </c>
       <c r="E22">
-        <v>1.01446714811444</v>
+        <v>1.078341369455743</v>
       </c>
       <c r="F22">
-        <v>1.023687718978531</v>
+        <v>1.08352115787234</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049795900525888</v>
+        <v>1.052659196664748</v>
       </c>
       <c r="J22">
-        <v>1.023864016178551</v>
+        <v>1.071966110520214</v>
       </c>
       <c r="K22">
-        <v>1.034701866888504</v>
+        <v>1.073512613559283</v>
       </c>
       <c r="L22">
-        <v>1.029757354600992</v>
+        <v>1.081893943567106</v>
       </c>
       <c r="M22">
-        <v>1.038804083319349</v>
+        <v>1.087055507395889</v>
       </c>
       <c r="N22">
-        <v>1.008537333705057</v>
+        <v>1.027202082961801</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9962199940798816</v>
+        <v>1.06591131889612</v>
       </c>
       <c r="D23">
-        <v>1.022232369263359</v>
+        <v>1.070382742189848</v>
       </c>
       <c r="E23">
-        <v>1.017596903318786</v>
+        <v>1.078877094571059</v>
       </c>
       <c r="F23">
-        <v>1.026725551146669</v>
+        <v>1.084037930625155</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051094175411712</v>
+        <v>1.052827271164995</v>
       </c>
       <c r="J23">
-        <v>1.02646358714821</v>
+        <v>1.07239951047043</v>
       </c>
       <c r="K23">
-        <v>1.03707297878678</v>
+        <v>1.073897918472765</v>
       </c>
       <c r="L23">
-        <v>1.032522708844137</v>
+        <v>1.082362586875509</v>
       </c>
       <c r="M23">
-        <v>1.041484534321309</v>
+        <v>1.087505638057563</v>
       </c>
       <c r="N23">
-        <v>1.009502794277364</v>
+        <v>1.027357533150758</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.009154958195248</v>
+        <v>1.068120814146057</v>
       </c>
       <c r="D24">
-        <v>1.032567851715405</v>
+        <v>1.072162057802807</v>
       </c>
       <c r="E24">
-        <v>1.029470658884517</v>
+        <v>1.080983941203943</v>
       </c>
       <c r="F24">
-        <v>1.038251370088774</v>
+        <v>1.086070006138785</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055984064836476</v>
+        <v>1.053484126746165</v>
       </c>
       <c r="J24">
-        <v>1.036305093655176</v>
+        <v>1.074101876729393</v>
       </c>
       <c r="K24">
-        <v>1.046046199688205</v>
+        <v>1.075410594124336</v>
       </c>
       <c r="L24">
-        <v>1.042999274851734</v>
+        <v>1.084204181906963</v>
       </c>
       <c r="M24">
-        <v>1.051638473425574</v>
+        <v>1.089274162054254</v>
       </c>
       <c r="N24">
-        <v>1.013154856796005</v>
+        <v>1.027966987316889</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.023238487946373</v>
+        <v>1.070678873009092</v>
       </c>
       <c r="D25">
-        <v>1.043843274691694</v>
+        <v>1.074220899262881</v>
       </c>
       <c r="E25">
-        <v>1.042434405440314</v>
+        <v>1.083424393205976</v>
       </c>
       <c r="F25">
-        <v>1.050835812713103</v>
+        <v>1.088423349537449</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061249564700644</v>
+        <v>1.054236442623044</v>
       </c>
       <c r="J25">
-        <v>1.04700831838655</v>
+        <v>1.076069535056937</v>
       </c>
       <c r="K25">
-        <v>1.055797075676283</v>
+        <v>1.07715738408156</v>
       </c>
       <c r="L25">
-        <v>1.054407852815352</v>
+        <v>1.086334408383341</v>
       </c>
       <c r="M25">
-        <v>1.062693086153458</v>
+        <v>1.091319191136055</v>
       </c>
       <c r="N25">
-        <v>1.017118930090399</v>
+        <v>1.02866904046829</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_114/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_114/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.072714666073793</v>
+        <v>1.033833999276945</v>
       </c>
       <c r="D2">
-        <v>1.075858415397501</v>
+        <v>1.052338426092246</v>
       </c>
       <c r="E2">
-        <v>1.085367558967875</v>
+        <v>1.052211666018831</v>
       </c>
       <c r="F2">
-        <v>1.090296748170131</v>
+        <v>1.060326565946836</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054828572189578</v>
+        <v>1.065161203720317</v>
       </c>
       <c r="J2">
-        <v>1.077632818300618</v>
+        <v>1.055047777269679</v>
       </c>
       <c r="K2">
-        <v>1.078543875911341</v>
+        <v>1.063113757953135</v>
       </c>
       <c r="L2">
-        <v>1.088028171411269</v>
+        <v>1.06298855218735</v>
       </c>
       <c r="M2">
-        <v>1.092944664306481</v>
+        <v>1.071004879291245</v>
       </c>
       <c r="N2">
-        <v>1.029224888212585</v>
+        <v>1.020088770505273</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.07419035827153</v>
+        <v>1.041203408642881</v>
       </c>
       <c r="D3">
-        <v>1.077044819703253</v>
+        <v>1.058251777161865</v>
       </c>
       <c r="E3">
-        <v>1.086776655987513</v>
+        <v>1.059024165307735</v>
       </c>
       <c r="F3">
-        <v>1.09165501277119</v>
+        <v>1.066938803572524</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055253965002003</v>
+        <v>1.067851747620597</v>
       </c>
       <c r="J3">
-        <v>1.078764458076185</v>
+        <v>1.060630547546638</v>
       </c>
       <c r="K3">
-        <v>1.079546771329144</v>
+        <v>1.06818986157023</v>
       </c>
       <c r="L3">
-        <v>1.089255028720666</v>
+        <v>1.068953669088223</v>
       </c>
       <c r="M3">
-        <v>1.09412173580405</v>
+        <v>1.076781260771462</v>
       </c>
       <c r="N3">
-        <v>1.029626136867439</v>
+        <v>1.0221460016698</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.07514413091314</v>
+        <v>1.0458351896376</v>
       </c>
       <c r="D4">
-        <v>1.077811341319072</v>
+        <v>1.061969947530374</v>
       </c>
       <c r="E4">
-        <v>1.087687635687663</v>
+        <v>1.063311050713914</v>
       </c>
       <c r="F4">
-        <v>1.092533016948944</v>
+        <v>1.07109926703145</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05552713379347</v>
+        <v>1.069528473139213</v>
       </c>
       <c r="J4">
-        <v>1.079495145909311</v>
+        <v>1.064134902713555</v>
       </c>
       <c r="K4">
-        <v>1.080193973291176</v>
+        <v>1.071373839619801</v>
       </c>
       <c r="L4">
-        <v>1.090047551146669</v>
+        <v>1.072701005794187</v>
       </c>
       <c r="M4">
-        <v>1.094881948317036</v>
+        <v>1.0804091260784</v>
       </c>
       <c r="N4">
-        <v>1.029884697867383</v>
+        <v>1.023434791326391</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.075544840179138</v>
+        <v>1.04775143385618</v>
       </c>
       <c r="D5">
-        <v>1.078133313246248</v>
+        <v>1.063508494135946</v>
       </c>
       <c r="E5">
-        <v>1.088070425270012</v>
+        <v>1.06508576755543</v>
       </c>
       <c r="F5">
-        <v>1.092901923272243</v>
+        <v>1.072821534482516</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055641475880192</v>
+        <v>1.070218667488362</v>
       </c>
       <c r="J5">
-        <v>1.07980195857496</v>
+        <v>1.065583576884974</v>
       </c>
       <c r="K5">
-        <v>1.080465644823173</v>
+        <v>1.072689491413665</v>
       </c>
       <c r="L5">
-        <v>1.090380412529164</v>
+        <v>1.074250838781132</v>
       </c>
       <c r="M5">
-        <v>1.095201203544755</v>
+        <v>1.081909319761154</v>
       </c>
       <c r="N5">
-        <v>1.02999314147903</v>
+        <v>1.023966926318877</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.075612106155291</v>
+        <v>1.048071413343699</v>
       </c>
       <c r="D6">
-        <v>1.078187357819455</v>
+        <v>1.063765418474655</v>
       </c>
       <c r="E6">
-        <v>1.088134686555313</v>
+        <v>1.065382180816711</v>
       </c>
       <c r="F6">
-        <v>1.09296385229385</v>
+        <v>1.073109180610896</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055660645270038</v>
+        <v>1.070333710774547</v>
       </c>
       <c r="J6">
-        <v>1.079853452298003</v>
+        <v>1.065825411952219</v>
       </c>
       <c r="K6">
-        <v>1.080511235614983</v>
+        <v>1.072909085600888</v>
       </c>
       <c r="L6">
-        <v>1.090436283086498</v>
+        <v>1.07450960265171</v>
       </c>
       <c r="M6">
-        <v>1.095254788207865</v>
+        <v>1.082159782024144</v>
       </c>
       <c r="N6">
-        <v>1.030011334706745</v>
+        <v>1.024055720004021</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.075149486210974</v>
+        <v>1.045860913983522</v>
       </c>
       <c r="D7">
-        <v>1.077815644594136</v>
+        <v>1.061990600545465</v>
       </c>
       <c r="E7">
-        <v>1.087692751266175</v>
+        <v>1.06333487063733</v>
       </c>
       <c r="F7">
-        <v>1.092537947099064</v>
+        <v>1.071122383452689</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055528663592662</v>
+        <v>1.069537752458742</v>
       </c>
       <c r="J7">
-        <v>1.079499246997322</v>
+        <v>1.064154354797195</v>
       </c>
       <c r="K7">
-        <v>1.080197604994076</v>
+        <v>1.071391507869582</v>
       </c>
       <c r="L7">
-        <v>1.090052000088634</v>
+        <v>1.072721813373151</v>
       </c>
       <c r="M7">
-        <v>1.094886215543892</v>
+        <v>1.080429268131458</v>
       </c>
       <c r="N7">
-        <v>1.029886147897894</v>
+        <v>1.023441939147212</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.073213614506562</v>
+        <v>1.036353949293832</v>
       </c>
       <c r="D8">
-        <v>1.076259609312599</v>
+        <v>1.054360096754953</v>
       </c>
       <c r="E8">
-        <v>1.085843938811924</v>
+        <v>1.05454005573547</v>
       </c>
       <c r="F8">
-        <v>1.090755966050358</v>
+        <v>1.062586585136222</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054972769384661</v>
+        <v>1.066084211493358</v>
       </c>
       <c r="J8">
-        <v>1.078015586834779</v>
+        <v>1.056957703499693</v>
       </c>
       <c r="K8">
-        <v>1.078883171489014</v>
+        <v>1.064850829016712</v>
       </c>
       <c r="L8">
-        <v>1.088443073206152</v>
+        <v>1.065028652596354</v>
       </c>
       <c r="M8">
-        <v>1.093342760285983</v>
+        <v>1.07298061573669</v>
       </c>
       <c r="N8">
-        <v>1.02936071536741</v>
+        <v>1.020793092562858</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.069793661216129</v>
+        <v>1.018466281616816</v>
       </c>
       <c r="D9">
-        <v>1.073508590551309</v>
+        <v>1.040020293575638</v>
       </c>
       <c r="E9">
-        <v>1.082579727219062</v>
+        <v>1.038037510337918</v>
       </c>
       <c r="F9">
-        <v>1.087608895548132</v>
+        <v>1.046567578363515</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0539771253168</v>
+        <v>1.059473091458855</v>
       </c>
       <c r="J9">
-        <v>1.075389039710422</v>
+        <v>1.043383386457009</v>
       </c>
       <c r="K9">
-        <v>1.076553476889224</v>
+        <v>1.052495803211195</v>
       </c>
       <c r="L9">
-        <v>1.085597485431732</v>
+        <v>1.050542192546842</v>
       </c>
       <c r="M9">
-        <v>1.090611825738201</v>
+        <v>1.058947753213008</v>
       </c>
       <c r="N9">
-        <v>1.028426540177754</v>
+        <v>1.015777519765284</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.067507444382811</v>
+        <v>1.005639717790715</v>
       </c>
       <c r="D10">
-        <v>1.071668199001212</v>
+        <v>1.029756954947325</v>
       </c>
       <c r="E10">
-        <v>1.080398969152825</v>
+        <v>1.026240688504702</v>
       </c>
       <c r="F10">
-        <v>1.085505833225579</v>
+        <v>1.03511595244346</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053302419416842</v>
+        <v>1.054659767017062</v>
       </c>
       <c r="J10">
-        <v>1.073629544886519</v>
+        <v>1.033631349978729</v>
       </c>
       <c r="K10">
-        <v>1.074991019533983</v>
+        <v>1.043608949165107</v>
       </c>
       <c r="L10">
-        <v>1.08369309113587</v>
+        <v>1.04015178905089</v>
       </c>
       <c r="M10">
-        <v>1.088783403051033</v>
+        <v>1.048878859070268</v>
       </c>
       <c r="N10">
-        <v>1.027798076665373</v>
+        <v>1.012163214384871</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.066515916117314</v>
+        <v>0.9998357570666867</v>
       </c>
       <c r="D11">
-        <v>1.070869715255135</v>
+        <v>1.025119299389663</v>
       </c>
       <c r="E11">
-        <v>1.079453506419089</v>
+        <v>1.020912830797957</v>
       </c>
       <c r="F11">
-        <v>1.084593923855108</v>
+        <v>1.029944200977</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053007640039621</v>
+        <v>1.052465581870089</v>
       </c>
       <c r="J11">
-        <v>1.072865590458195</v>
+        <v>1.029215370333646</v>
       </c>
       <c r="K11">
-        <v>1.074312188595502</v>
+        <v>1.039582556496304</v>
       </c>
       <c r="L11">
-        <v>1.082866658337639</v>
+        <v>1.035450851801684</v>
       </c>
       <c r="M11">
-        <v>1.087989760649999</v>
+        <v>1.044322676341779</v>
       </c>
       <c r="N11">
-        <v>1.027524574760148</v>
+        <v>1.010524469681481</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.066147373039342</v>
+        <v>0.9976387992838426</v>
       </c>
       <c r="D12">
-        <v>1.070572879816084</v>
+        <v>1.023364972255993</v>
       </c>
       <c r="E12">
-        <v>1.079102135592657</v>
+        <v>1.018897757645291</v>
       </c>
       <c r="F12">
-        <v>1.084255003211133</v>
+        <v>1.027988230129524</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052897748592029</v>
+        <v>1.051632697381397</v>
       </c>
       <c r="J12">
-        <v>1.072581505238174</v>
+        <v>1.027543426631513</v>
       </c>
       <c r="K12">
-        <v>1.074059693503179</v>
+        <v>1.038057820916299</v>
       </c>
       <c r="L12">
-        <v>1.082559405301284</v>
+        <v>1.033671646364223</v>
       </c>
       <c r="M12">
-        <v>1.08769467186014</v>
+        <v>1.04259817075867</v>
       </c>
       <c r="N12">
-        <v>1.027422775660704</v>
+        <v>1.009903755905382</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.066226438007566</v>
+        <v>0.9981119765261943</v>
       </c>
       <c r="D13">
-        <v>1.070636563108814</v>
+        <v>1.023742761286988</v>
       </c>
       <c r="E13">
-        <v>1.079177514254229</v>
+        <v>1.019331683210039</v>
       </c>
       <c r="F13">
-        <v>1.084327711849506</v>
+        <v>1.028409425357154</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052921338698564</v>
+        <v>1.051812185850396</v>
       </c>
       <c r="J13">
-        <v>1.072642456989915</v>
+        <v>1.027903542192383</v>
       </c>
       <c r="K13">
-        <v>1.074113870343708</v>
+        <v>1.038386242391811</v>
       </c>
       <c r="L13">
-        <v>1.08262532484776</v>
+        <v>1.034054836310308</v>
       </c>
       <c r="M13">
-        <v>1.087757982833584</v>
+        <v>1.042969583500168</v>
       </c>
       <c r="N13">
-        <v>1.027444621372447</v>
+        <v>1.010037460942822</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.066485457281297</v>
+        <v>0.9996550166360758</v>
       </c>
       <c r="D14">
-        <v>1.070845183733756</v>
+        <v>1.024974949039947</v>
       </c>
       <c r="E14">
-        <v>1.079424465786049</v>
+        <v>1.020747019078971</v>
       </c>
       <c r="F14">
-        <v>1.084565912621526</v>
+        <v>1.029783251118229</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05299856449709</v>
+        <v>1.052397108218672</v>
       </c>
       <c r="J14">
-        <v>1.072842114416892</v>
+        <v>1.029077828946079</v>
       </c>
       <c r="K14">
-        <v>1.074291324381451</v>
+        <v>1.039457130845736</v>
       </c>
       <c r="L14">
-        <v>1.082841266434403</v>
+        <v>1.035304473833349</v>
       </c>
       <c r="M14">
-        <v>1.087965374562823</v>
+        <v>1.044180800253522</v>
       </c>
       <c r="N14">
-        <v>1.02751616427615</v>
+        <v>1.010473412133334</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.066645014862623</v>
+        <v>1.000600173232397</v>
       </c>
       <c r="D15">
-        <v>1.070973689422877</v>
+        <v>1.025729856798399</v>
       </c>
       <c r="E15">
-        <v>1.079576596213218</v>
+        <v>1.021614176695855</v>
       </c>
       <c r="F15">
-        <v>1.084712649702122</v>
+        <v>1.030624984963769</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053046093142844</v>
+        <v>1.052755087671929</v>
       </c>
       <c r="J15">
-        <v>1.072965087564678</v>
+        <v>1.029797067697545</v>
       </c>
       <c r="K15">
-        <v>1.074400613531509</v>
+        <v>1.040113001597786</v>
       </c>
       <c r="L15">
-        <v>1.082974278008336</v>
+        <v>1.036069946826026</v>
       </c>
       <c r="M15">
-        <v>1.088093116234529</v>
+        <v>1.044922727587943</v>
       </c>
       <c r="N15">
-        <v>1.027560216555818</v>
+        <v>1.010740394515919</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.067573214870942</v>
+        <v>1.006019347891248</v>
       </c>
       <c r="D16">
-        <v>1.071721157950892</v>
+        <v>1.030060446915718</v>
       </c>
       <c r="E16">
-        <v>1.080461690977206</v>
+        <v>1.026589398873496</v>
       </c>
       <c r="F16">
-        <v>1.085566326374317</v>
+        <v>1.035454452268264</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053321927382994</v>
+        <v>1.054802959809645</v>
       </c>
       <c r="J16">
-        <v>1.073680201675701</v>
+        <v>1.033920136080794</v>
       </c>
       <c r="K16">
-        <v>1.07503602291445</v>
+        <v>1.043872215480951</v>
       </c>
       <c r="L16">
-        <v>1.083747899951687</v>
+        <v>1.040459295953515</v>
       </c>
       <c r="M16">
-        <v>1.088836033475006</v>
+        <v>1.049176883977566</v>
       </c>
       <c r="N16">
-        <v>1.027816198984519</v>
+        <v>1.012270342005899</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.068155021392616</v>
+        <v>1.009349358684662</v>
       </c>
       <c r="D17">
-        <v>1.072189597892534</v>
+        <v>1.032723343517782</v>
       </c>
       <c r="E17">
-        <v>1.081016566964843</v>
+        <v>1.029649350979539</v>
       </c>
       <c r="F17">
-        <v>1.086101470969652</v>
+        <v>1.038424832590616</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053494245729286</v>
+        <v>1.056057193572249</v>
       </c>
       <c r="J17">
-        <v>1.074128212489319</v>
+        <v>1.036452936018716</v>
       </c>
       <c r="K17">
-        <v>1.075433985388195</v>
+        <v>1.046180950773765</v>
       </c>
       <c r="L17">
-        <v>1.084232681710011</v>
+        <v>1.043156751536478</v>
       </c>
       <c r="M17">
-        <v>1.089301526888522</v>
+        <v>1.051791085782706</v>
       </c>
       <c r="N17">
-        <v>1.027976400964694</v>
+        <v>1.013209674882954</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.06849422724919</v>
+        <v>1.011267841477659</v>
       </c>
       <c r="D18">
-        <v>1.072462678702554</v>
+        <v>1.034258083102746</v>
       </c>
       <c r="E18">
-        <v>1.081340103325192</v>
+        <v>1.031413191508925</v>
       </c>
       <c r="F18">
-        <v>1.086413489689128</v>
+        <v>1.040137058531725</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053594502785097</v>
+        <v>1.056778254154979</v>
       </c>
       <c r="J18">
-        <v>1.074389329171315</v>
+        <v>1.037911819344517</v>
       </c>
       <c r="K18">
-        <v>1.075665890849856</v>
+        <v>1.047510565549179</v>
       </c>
       <c r="L18">
-        <v>1.084515271756023</v>
+        <v>1.044710861458497</v>
       </c>
       <c r="M18">
-        <v>1.089572856137846</v>
+        <v>1.053297162225828</v>
       </c>
       <c r="N18">
-        <v>1.028069711727134</v>
+        <v>1.013750527264866</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.06860986212486</v>
+        <v>1.011918048739212</v>
       </c>
       <c r="D19">
-        <v>1.072555766532483</v>
+        <v>1.034778328793784</v>
       </c>
       <c r="E19">
-        <v>1.081450401823775</v>
+        <v>1.032011143950797</v>
       </c>
       <c r="F19">
-        <v>1.086519859489873</v>
+        <v>1.040717515375698</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053628644959252</v>
+        <v>1.057022372123521</v>
       </c>
       <c r="J19">
-        <v>1.074478329387506</v>
+        <v>1.038406204501974</v>
       </c>
       <c r="K19">
-        <v>1.075744927570629</v>
+        <v>1.047961108003915</v>
       </c>
       <c r="L19">
-        <v>1.084611598165855</v>
+        <v>1.045237582082129</v>
       </c>
       <c r="M19">
-        <v>1.089665341161601</v>
+        <v>1.053807591261808</v>
       </c>
       <c r="N19">
-        <v>1.02810150589926</v>
+        <v>1.013933775578931</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.068092614841969</v>
+        <v>1.008994571825867</v>
       </c>
       <c r="D20">
-        <v>1.072139354510135</v>
+        <v>1.032439569549995</v>
       </c>
       <c r="E20">
-        <v>1.080957045801498</v>
+        <v>1.029323237753596</v>
       </c>
       <c r="F20">
-        <v>1.086044067690135</v>
+        <v>1.038108263469298</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053475783822111</v>
+        <v>1.055923722711906</v>
       </c>
       <c r="J20">
-        <v>1.074080165944116</v>
+        <v>1.03618311739006</v>
       </c>
       <c r="K20">
-        <v>1.075391310502443</v>
+        <v>1.045935023101783</v>
       </c>
       <c r="L20">
-        <v>1.084180687355208</v>
+        <v>1.042869352044924</v>
       </c>
       <c r="M20">
-        <v>1.089251603046473</v>
+        <v>1.051512563442857</v>
       </c>
       <c r="N20">
-        <v>1.027959226511875</v>
+        <v>1.013109628392914</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.066409189396018</v>
+        <v>0.9992017954222121</v>
       </c>
       <c r="D21">
-        <v>1.070783756911128</v>
+        <v>1.024612998071394</v>
       </c>
       <c r="E21">
-        <v>1.079351749843768</v>
+        <v>1.020331260121781</v>
       </c>
       <c r="F21">
-        <v>1.084495773916378</v>
+        <v>1.0293796839507</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052975834411126</v>
+        <v>1.052225367998732</v>
       </c>
       <c r="J21">
-        <v>1.07278332912074</v>
+        <v>1.028732927190622</v>
       </c>
       <c r="K21">
-        <v>1.074239078211258</v>
+        <v>1.039142606167357</v>
       </c>
       <c r="L21">
-        <v>1.082777684772517</v>
+        <v>1.034937423385597</v>
       </c>
       <c r="M21">
-        <v>1.087904311047917</v>
+        <v>1.043825037182494</v>
       </c>
       <c r="N21">
-        <v>1.027495102441007</v>
+        <v>1.010345375035239</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.065349329706057</v>
+        <v>0.9928047346714678</v>
       </c>
       <c r="D22">
-        <v>1.069930030167643</v>
+        <v>1.019507193065711</v>
       </c>
       <c r="E22">
-        <v>1.078341369455743</v>
+        <v>1.014467148114441</v>
       </c>
       <c r="F22">
-        <v>1.08352115787234</v>
+        <v>1.023687718978533</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052659196664748</v>
+        <v>1.049795900525888</v>
       </c>
       <c r="J22">
-        <v>1.071966110520214</v>
+        <v>1.023864016178551</v>
       </c>
       <c r="K22">
-        <v>1.073512613559283</v>
+        <v>1.034701866888506</v>
       </c>
       <c r="L22">
-        <v>1.081893943567106</v>
+        <v>1.029757354600993</v>
       </c>
       <c r="M22">
-        <v>1.087055507395889</v>
+        <v>1.03880408331935</v>
       </c>
       <c r="N22">
-        <v>1.027202082961801</v>
+        <v>1.008537333705058</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.06591131889612</v>
+        <v>0.9962199940798827</v>
       </c>
       <c r="D23">
-        <v>1.070382742189848</v>
+        <v>1.02223236926336</v>
       </c>
       <c r="E23">
-        <v>1.078877094571059</v>
+        <v>1.017596903318788</v>
       </c>
       <c r="F23">
-        <v>1.084037930625155</v>
+        <v>1.026725551146671</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052827271164995</v>
+        <v>1.051094175411713</v>
       </c>
       <c r="J23">
-        <v>1.07239951047043</v>
+        <v>1.026463587148211</v>
       </c>
       <c r="K23">
-        <v>1.073897918472765</v>
+        <v>1.037072978786781</v>
       </c>
       <c r="L23">
-        <v>1.082362586875509</v>
+        <v>1.032522708844138</v>
       </c>
       <c r="M23">
-        <v>1.087505638057563</v>
+        <v>1.04148453432131</v>
       </c>
       <c r="N23">
-        <v>1.027357533150758</v>
+        <v>1.009502794277364</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.068120814146057</v>
+        <v>1.009154958195249</v>
       </c>
       <c r="D24">
-        <v>1.072162057802807</v>
+        <v>1.032567851715406</v>
       </c>
       <c r="E24">
-        <v>1.080983941203943</v>
+        <v>1.029470658884518</v>
       </c>
       <c r="F24">
-        <v>1.086070006138785</v>
+        <v>1.038251370088776</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053484126746165</v>
+        <v>1.055984064836477</v>
       </c>
       <c r="J24">
-        <v>1.074101876729393</v>
+        <v>1.036305093655177</v>
       </c>
       <c r="K24">
-        <v>1.075410594124336</v>
+        <v>1.046046199688205</v>
       </c>
       <c r="L24">
-        <v>1.084204181906963</v>
+        <v>1.042999274851735</v>
       </c>
       <c r="M24">
-        <v>1.089274162054254</v>
+        <v>1.051638473425576</v>
       </c>
       <c r="N24">
-        <v>1.027966987316889</v>
+        <v>1.013154856796006</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.070678873009092</v>
+        <v>1.023238487946373</v>
       </c>
       <c r="D25">
-        <v>1.074220899262881</v>
+        <v>1.043843274691694</v>
       </c>
       <c r="E25">
-        <v>1.083424393205976</v>
+        <v>1.042434405440314</v>
       </c>
       <c r="F25">
-        <v>1.088423349537449</v>
+        <v>1.050835812713103</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054236442623044</v>
+        <v>1.061249564700644</v>
       </c>
       <c r="J25">
-        <v>1.076069535056937</v>
+        <v>1.04700831838655</v>
       </c>
       <c r="K25">
-        <v>1.07715738408156</v>
+        <v>1.055797075676283</v>
       </c>
       <c r="L25">
-        <v>1.086334408383341</v>
+        <v>1.054407852815352</v>
       </c>
       <c r="M25">
-        <v>1.091319191136055</v>
+        <v>1.062693086153457</v>
       </c>
       <c r="N25">
-        <v>1.02866904046829</v>
+        <v>1.017118930090399</v>
       </c>
     </row>
   </sheetData>
